--- a/admin/template/tutorinfo.xlsx
+++ b/admin/template/tutorinfo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="10575"/>
@@ -27,9 +27,6 @@
     <t>专业学位类型</t>
   </si>
   <si>
-    <t>工程领域名称</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -73,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学术型           招生专业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目管理、工业工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MBA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,13 +95,24 @@
   </si>
   <si>
     <t>曹晓丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文指导方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业战略管理</t>
+  </si>
+  <si>
+    <t>专硕招生专业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -233,18 +233,91 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFF00"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -311,6 +384,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,6 +419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,14 +595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L11" sqref="L11"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
@@ -550,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="71.25" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -570,40 +645,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="32.25" customHeight="1">
@@ -616,37 +691,37 @@
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>196506</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
